--- a/medicine/Enfance/Le_Chien_qui_miaulait/Le_Chien_qui_miaulait.xlsx
+++ b/medicine/Enfance/Le_Chien_qui_miaulait/Le_Chien_qui_miaulait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chien qui miaulait est le vingt et unième roman de la série Les Conquérants de l'impossible par Philippe Ébly édité en mars 2009 chez Temps Impossibles.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Sark convoque Serge, Thibaut et Xolotl pour leur demander une faveur très personnelle. Il s'agit de sauver un jeune garçon victime d'un grave accident de moto qui l'a laissé tétraplégique. Seulement la solution du docteur Sark n'est qu'au stade expérimental, ce qui n'est pas sans risque pour le cobaye...
 </t>
@@ -543,7 +557,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2009 - Temps Impossibles (français, version originale), illustré par Fred Grivaud.</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'histoire se situe chronologiquement avant l'arrivée de Souhi dans le groupe car elle n'apparaît pas dans le récit, sauf au dernier chapitre.
 En fin d'ouvrage, un texte pédagogique d'une dizaine de pages aborde les thèmes du roman.
